--- a/02_MasterWifoMannheim/99_Backup/Course169.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course169.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B92311596208F14907F851" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC38C702-EA67-45BD-A736-5E7BDF7976D5}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 692 Strategic Sourcing</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Increased levels of outsourcing make the selection of the right suppliers more crucial than ever. Strategic sourcing focusses on all steps of the supplier selection process from a strategic perspective. Building on knowledge of the operating model and strategic role of procurement, this module provides the theoretical background and the practical tools of sourcing from demand analysis all the way to business award decisions and the management of the ensuing buyer-supplier analysis, quotation management, negotiation, contracting) and post-transaction (purchase-to-pay process, expediting, conflicts) sourcing are covered. advanced procurement approaches that aim at creating “value beyond cost” and on optimization levers both from a technical (e.g., product teardown analysis, cost modeling) and a commercial (e.g., current negotiation concepts, reverse auctions) perspective. The module consists of regular lectures and exercise classes in which extended and short cases will be discussed. consulting experiences in procurement.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Participants will learn how to set up and manage sourcing projects while considering the broader strategic environment of the organization (competitive, functional, category, and supply base).</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Christoph Bode</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Math., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>OPM 591</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 692 Strategic Sourcing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Increased levels of outsourcing make the selection of the right suppliers more crucial than ever. Strategic sourcing focusses on all steps of the supplier selection process from a strategic perspective. Building on knowledge of the operating model and strategic role of procurement, this module provides the theoretical background and the practical tools of sourcing from demand analysis all the way to business award decisions and the management of the ensuing buyer-supplier analysis, quotation management, negotiation, contracting) and post-transaction (purchase-to-pay process, expediting, conflicts) sourcing are covered. advanced procurement approaches that aim at creating “value beyond cost” and on optimization levers both from a technical (e.g., product teardown analysis, cost modeling) and a commercial (e.g., current negotiation concepts, reverse auctions) perspective. The module consists of regular lectures and exercise classes in which extended and short cases will be discussed. consulting experiences in procurement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Participants will learn how to set up and manage sourcing projects while considering the broader strategic environment of the organization (competitive, functional, category, and supply base).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OPM 591</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Christoph Bode</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Math., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
